--- a/giang_vien.xlsx
+++ b/giang_vien.xlsx
@@ -54,9 +54,6 @@
     <t>co so du lieu</t>
   </si>
   <si>
-    <t>phuong111234</t>
-  </si>
-  <si>
     <t>hocHam</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>ThS.</t>
+  </si>
+  <si>
+    <t>thien</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="F5:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,18 +459,18 @@
         <v>9</v>
       </c>
       <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" t="s">
         <v>13</v>
-      </c>
-      <c r="O5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F6">
-        <v>9979898</v>
+        <v>8080</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>6</v>
@@ -488,10 +488,10 @@
         <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
